--- a/Data/aearep-44/candidatepackages.xlsx
+++ b/Data/aearep-44/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,21 +22,18 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ivreg2</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -67,30 +64,27 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>matmap</t>
   </si>
   <si>
     <t>distplot</t>
   </si>
   <si>
+    <t>leebounds</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>strip</t>
   </si>
   <si>
-    <t>matmap</t>
-  </si>
-  <si>
-    <t>leebounds</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>omega</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -103,6 +97,9 @@
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
@@ -112,66 +109,63 @@
     <t>egenmisc</t>
   </si>
   <si>
-    <t>median</t>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>dict</t>
   </si>
   <si>
     <t>addnotes</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
-    <t>dict</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>subset</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>usd</t>
+  </si>
+  <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>usd</t>
+    <t>try</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>meaning</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>pipe</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>subset</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
     <t>isa</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-44</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-44/Analysis/code/StataCode</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
     <t>00_MasterFile.do</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
   </si>
   <si>
     <t>9b_Teacher_Midline.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>TvsC_tables.do</t>
@@ -351,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D52"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -359,13 +344,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -385,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -397,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -409,7 +394,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -421,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -433,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -445,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -457,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -469,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -493,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -505,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -517,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -529,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -541,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -553,10 +538,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>406</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.13421487808227539</v>
       </c>
       <c r="D17"/>
     </row>
@@ -565,10 +550,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.15008264780044556</v>
       </c>
       <c r="D18"/>
     </row>
@@ -577,10 +562,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>349</v>
+        <v>522</v>
       </c>
       <c r="C19">
-        <v>0.11571618169546127</v>
+        <v>0.17256198823451996</v>
       </c>
       <c r="D19"/>
     </row>
@@ -589,10 +574,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="C20">
-        <v>0.1253315657377243</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D20"/>
     </row>
@@ -601,10 +586,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>413</v>
+        <v>563</v>
       </c>
       <c r="C21">
-        <v>0.13693633675575256</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D21"/>
     </row>
@@ -613,10 +598,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="C22">
-        <v>0.15517240762710571</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D22"/>
     </row>
@@ -625,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>503</v>
+        <v>627</v>
       </c>
       <c r="C23">
-        <v>0.16677719354629517</v>
+        <v>0.2072727233171463</v>
       </c>
       <c r="D23"/>
     </row>
@@ -637,10 +622,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="C24">
-        <v>0.18534483015537262</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D24"/>
     </row>
@@ -649,10 +634,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>566</v>
+        <v>647</v>
       </c>
       <c r="C25">
-        <v>0.18766577541828156</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D25"/>
     </row>
@@ -661,10 +646,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="C26">
-        <v>0.20092837512493134</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D26"/>
     </row>
@@ -673,10 +658,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>613</v>
+        <v>712</v>
       </c>
       <c r="C27">
-        <v>0.20324933528900146</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D27"/>
     </row>
@@ -685,10 +670,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>694</v>
+        <v>955</v>
       </c>
       <c r="C28">
-        <v>0.23010610044002533</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D28"/>
     </row>
@@ -697,10 +682,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>745</v>
+        <v>978</v>
       </c>
       <c r="C29">
-        <v>0.24701590836048126</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D29"/>
     </row>
@@ -709,10 +694,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>879</v>
+        <v>998</v>
       </c>
       <c r="C30">
-        <v>0.29144561290740967</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D30"/>
     </row>
@@ -721,10 +706,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>985</v>
+        <v>1207</v>
       </c>
       <c r="C31">
-        <v>0.32659152150154114</v>
+        <v>0.39900827407836914</v>
       </c>
       <c r="D31"/>
     </row>
@@ -733,10 +718,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1013</v>
+        <v>1306</v>
       </c>
       <c r="C32">
-        <v>0.33587533235549927</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D32"/>
     </row>
@@ -745,10 +730,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1133</v>
+        <v>1307</v>
       </c>
       <c r="C33">
-        <v>0.37566313147544861</v>
+        <v>0.43206611275672913</v>
       </c>
       <c r="D33"/>
     </row>
@@ -757,10 +742,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1312</v>
+        <v>1385</v>
       </c>
       <c r="C34">
-        <v>0.43501326441764832</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D34"/>
     </row>
@@ -769,10 +754,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="C35">
-        <v>0.47877985239028931</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D35"/>
     </row>
@@ -781,10 +766,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C36">
-        <v>0.48806366324424744</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D36"/>
     </row>
@@ -793,10 +778,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="C37">
-        <v>0.51492041349411011</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D37"/>
     </row>
@@ -805,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1565</v>
+        <v>1678</v>
       </c>
       <c r="C38">
-        <v>0.51889920234680176</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D38"/>
     </row>
@@ -817,10 +802,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1591</v>
+        <v>1724</v>
       </c>
       <c r="C39">
-        <v>0.52751988172531128</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D39"/>
     </row>
@@ -829,10 +814,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1621</v>
+        <v>1880</v>
       </c>
       <c r="C40">
-        <v>0.53746682405471802</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D40"/>
     </row>
@@ -841,10 +826,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1798</v>
+        <v>1971</v>
       </c>
       <c r="C41">
-        <v>0.5961538553237915</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D41"/>
     </row>
@@ -853,10 +838,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1817</v>
+        <v>1974</v>
       </c>
       <c r="C42">
-        <v>0.60245358943939209</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D42"/>
     </row>
@@ -865,10 +850,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1835</v>
+        <v>1993</v>
       </c>
       <c r="C43">
-        <v>0.60842174291610718</v>
+        <v>0.65884298086166382</v>
       </c>
       <c r="D43"/>
     </row>
@@ -877,10 +862,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1859</v>
+        <v>2008</v>
       </c>
       <c r="C44">
-        <v>0.61637932062149048</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D44"/>
     </row>
@@ -889,10 +874,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1890</v>
+        <v>2030</v>
       </c>
       <c r="C45">
-        <v>0.62665784358978271</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D45"/>
     </row>
@@ -901,10 +886,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2133</v>
+        <v>2057</v>
       </c>
       <c r="C46">
-        <v>0.70722812414169312</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D46"/>
     </row>
@@ -913,10 +898,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2217</v>
+        <v>2137</v>
       </c>
       <c r="C47">
-        <v>0.73507958650588989</v>
+        <v>0.70644629001617432</v>
       </c>
       <c r="D47"/>
     </row>
@@ -925,10 +910,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2367</v>
+        <v>2218</v>
       </c>
       <c r="C48">
-        <v>0.78481429815292358</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D48"/>
     </row>
@@ -937,10 +922,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2395</v>
+        <v>2359</v>
       </c>
       <c r="C49">
-        <v>0.7940981388092041</v>
+        <v>0.77983468770980835</v>
       </c>
       <c r="D49"/>
     </row>
@@ -949,10 +934,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2430</v>
+        <v>2806</v>
       </c>
       <c r="C50">
-        <v>0.80570292472839355</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D50"/>
     </row>
@@ -961,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2511</v>
+        <v>2877</v>
       </c>
       <c r="C51">
-        <v>0.83255970478057861</v>
+        <v>0.95107436180114746</v>
       </c>
       <c r="D51"/>
     </row>
@@ -973,36 +958,12 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2529</v>
+        <v>2977</v>
       </c>
       <c r="C52">
-        <v>0.8385278582572937</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>2717</v>
-      </c>
-      <c r="C53">
-        <v>0.90086209774017334</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>2989</v>
-      </c>
-      <c r="C54">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D54"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1010,279 +971,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
